--- a/data/origin/tonifying formulae.xlsx
+++ b/data/origin/tonifying formulae.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\待更新\格式整理\生物信息学\HPE-GCN\data\origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72B9A7A-9B8C-4FAC-99AE-CE891D3C2DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180E8AF0-D509-4A2E-80BE-6304E28FB46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8895" yWindow="2445" windowWidth="15615" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="1245" windowWidth="15345" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -485,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -499,7 +499,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -513,7 +513,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
